--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Gfra4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Gfra4</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H2">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I2">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J2">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9270143333333335</v>
+        <v>0.9270143333333333</v>
       </c>
       <c r="N2">
         <v>2.781043</v>
       </c>
       <c r="O2">
-        <v>0.5638049127306946</v>
+        <v>0.3014075983236317</v>
       </c>
       <c r="P2">
-        <v>0.6461387013672558</v>
+        <v>0.3723770652481297</v>
       </c>
       <c r="Q2">
-        <v>0.1957665779085556</v>
+        <v>0.4864863069661111</v>
       </c>
       <c r="R2">
-        <v>1.761899201177</v>
+        <v>4.378376762695</v>
       </c>
       <c r="S2">
-        <v>0.03312041214524013</v>
+        <v>0.05048112714343436</v>
       </c>
       <c r="T2">
-        <v>0.04149836519511489</v>
+        <v>0.06236741900549473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.5247883333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.574365</v>
+      </c>
+      <c r="I3">
+        <v>0.1674845870648259</v>
+      </c>
+      <c r="J3">
+        <v>0.1674845870648259</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.2111796666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.6335390000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.05874445468172133</v>
-      </c>
-      <c r="J3">
-        <v>0.06422516575357994</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.03514900000000001</v>
+        <v>0.07826466666666666</v>
       </c>
       <c r="N3">
-        <v>0.105447</v>
+        <v>0.234794</v>
       </c>
       <c r="O3">
-        <v>0.021377424452881</v>
+        <v>0.02544681820482416</v>
       </c>
       <c r="P3">
-        <v>0.02449922120696193</v>
+        <v>0.03143852887491109</v>
       </c>
       <c r="Q3">
-        <v>0.007422754103666668</v>
+        <v>0.04107238397888888</v>
       </c>
       <c r="R3">
-        <v>0.06680478693300002</v>
+        <v>0.36965145581</v>
       </c>
       <c r="S3">
-        <v>0.001255805141984189</v>
+        <v>0.004261949839148667</v>
       </c>
       <c r="T3">
-        <v>0.001573466542850751</v>
+        <v>0.005265469026540089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H4">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I4">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J4">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6285375000000001</v>
+        <v>1.758499</v>
       </c>
       <c r="N4">
-        <v>1.257075</v>
+        <v>3.516998</v>
       </c>
       <c r="O4">
-        <v>0.3822729785215139</v>
+        <v>0.5717548706487185</v>
       </c>
       <c r="P4">
-        <v>0.2920648145394527</v>
+        <v>0.4709202244350561</v>
       </c>
       <c r="Q4">
-        <v>0.1327343397375</v>
+        <v>0.9228397593783333</v>
       </c>
       <c r="R4">
-        <v>0.7964060384250002</v>
+        <v>5.53703855627</v>
       </c>
       <c r="S4">
-        <v>0.0224564176628037</v>
+        <v>0.09576012841290354</v>
       </c>
       <c r="T4">
-        <v>0.01875791112458493</v>
+        <v>0.07887187932998049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H5">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I5">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J5">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05351033333333333</v>
+        <v>0.311839</v>
       </c>
       <c r="N5">
-        <v>0.160531</v>
+        <v>0.935517</v>
       </c>
       <c r="O5">
-        <v>0.03254468429491061</v>
+        <v>0.1013907128228255</v>
       </c>
       <c r="P5">
-        <v>0.03729726288632967</v>
+        <v>0.1252641814419031</v>
       </c>
       <c r="Q5">
-        <v>0.01130029435655556</v>
+        <v>0.1636494690783333</v>
       </c>
       <c r="R5">
-        <v>0.101702649209</v>
+        <v>1.472845221705</v>
       </c>
       <c r="S5">
-        <v>0.001911819731693304</v>
+        <v>0.01698138166933927</v>
       </c>
       <c r="T5">
-        <v>0.002395422891029369</v>
+        <v>0.02097981970281057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -794,10 +794,10 @@
         <v>6.719791</v>
       </c>
       <c r="I6">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J6">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,16 +806,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9270143333333335</v>
+        <v>0.9270143333333333</v>
       </c>
       <c r="N6">
         <v>2.781043</v>
       </c>
       <c r="O6">
-        <v>0.5638049127306946</v>
+        <v>0.3014075983236317</v>
       </c>
       <c r="P6">
-        <v>0.6461387013672558</v>
+        <v>0.3723770652481297</v>
       </c>
       <c r="Q6">
         <v>2.076447524668111</v>
@@ -824,10 +824,10 @@
         <v>18.688027722013</v>
       </c>
       <c r="S6">
-        <v>0.3512999948698901</v>
+        <v>0.2154663142589589</v>
       </c>
       <c r="T6">
-        <v>0.4401628644058949</v>
+        <v>0.2662000367934707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,40 +856,40 @@
         <v>6.719791</v>
       </c>
       <c r="I7">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J7">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03514900000000001</v>
+        <v>0.07826466666666666</v>
       </c>
       <c r="N7">
-        <v>0.105447</v>
+        <v>0.234794</v>
       </c>
       <c r="O7">
-        <v>0.021377424452881</v>
+        <v>0.02544681820482416</v>
       </c>
       <c r="P7">
-        <v>0.02449922120696193</v>
+        <v>0.03143852887491109</v>
       </c>
       <c r="Q7">
-        <v>0.07873131128633334</v>
+        <v>0.1753074008948889</v>
       </c>
       <c r="R7">
-        <v>0.7085818015770001</v>
+        <v>1.577766608054</v>
       </c>
       <c r="S7">
-        <v>0.01332001359167956</v>
+        <v>0.01819108794438561</v>
       </c>
       <c r="T7">
-        <v>0.01668936926290187</v>
+        <v>0.02247436355312958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>6.719791</v>
       </c>
       <c r="I8">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J8">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6285375000000001</v>
+        <v>1.758499</v>
       </c>
       <c r="N8">
-        <v>1.257075</v>
+        <v>3.516998</v>
       </c>
       <c r="O8">
-        <v>0.3822729785215139</v>
+        <v>0.5717548706487185</v>
       </c>
       <c r="P8">
-        <v>0.2920648145394527</v>
+        <v>0.4709202244350561</v>
       </c>
       <c r="Q8">
-        <v>1.4078802118875</v>
+        <v>3.938915251236333</v>
       </c>
       <c r="R8">
-        <v>8.447281271325</v>
+        <v>23.633491507418</v>
       </c>
       <c r="S8">
-        <v>0.2381896509966227</v>
+        <v>0.4087286296810927</v>
       </c>
       <c r="T8">
-        <v>0.1989605096983542</v>
+        <v>0.336645279128213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -980,10 +980,10 @@
         <v>6.719791</v>
       </c>
       <c r="I9">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J9">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05351033333333333</v>
+        <v>0.311839</v>
       </c>
       <c r="N9">
-        <v>0.160531</v>
+        <v>0.935517</v>
       </c>
       <c r="O9">
-        <v>0.03254468429491061</v>
+        <v>0.1013907128228255</v>
       </c>
       <c r="P9">
-        <v>0.03729726288632967</v>
+        <v>0.1252641814419031</v>
       </c>
       <c r="Q9">
-        <v>0.1198594187801111</v>
+        <v>0.6984976352163333</v>
       </c>
       <c r="R9">
-        <v>1.078734769021</v>
+        <v>6.286478716947</v>
       </c>
       <c r="S9">
-        <v>0.02027819759581507</v>
+        <v>0.07248086416376823</v>
       </c>
       <c r="T9">
-        <v>0.02540765633107532</v>
+        <v>0.08954721657339254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H10">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I10">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J10">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.9270143333333335</v>
+        <v>0.9270143333333333</v>
       </c>
       <c r="N10">
         <v>2.781043</v>
       </c>
       <c r="O10">
-        <v>0.5638049127306946</v>
+        <v>0.3014075983236317</v>
       </c>
       <c r="P10">
-        <v>0.6461387013672558</v>
+        <v>0.3723770652481297</v>
       </c>
       <c r="Q10">
-        <v>0.2071490779027778</v>
+        <v>0.3417293107587778</v>
       </c>
       <c r="R10">
-        <v>1.864341701125</v>
+        <v>3.075563796829</v>
       </c>
       <c r="S10">
-        <v>0.03504613968810973</v>
+        <v>0.0354601569212384</v>
       </c>
       <c r="T10">
-        <v>0.04391121393896057</v>
+        <v>0.04380960944916435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H11">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I11">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J11">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03514900000000001</v>
+        <v>0.07826466666666666</v>
       </c>
       <c r="N11">
-        <v>0.105447</v>
+        <v>0.234794</v>
       </c>
       <c r="O11">
-        <v>0.021377424452881</v>
+        <v>0.02544681820482416</v>
       </c>
       <c r="P11">
-        <v>0.02449922120696193</v>
+        <v>0.03143852887491109</v>
       </c>
       <c r="Q11">
-        <v>0.007854336958333335</v>
+        <v>0.02885104322022222</v>
       </c>
       <c r="R11">
-        <v>0.07068903262500001</v>
+        <v>0.259659388982</v>
       </c>
       <c r="S11">
-        <v>0.001328821701675273</v>
+        <v>0.002993780421289872</v>
       </c>
       <c r="T11">
-        <v>0.001664952960533719</v>
+        <v>0.003698696295241424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H12">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I12">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J12">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6285375000000001</v>
+        <v>1.758499</v>
       </c>
       <c r="N12">
-        <v>1.257075</v>
+        <v>3.516998</v>
       </c>
       <c r="O12">
-        <v>0.3822729785215139</v>
+        <v>0.5717548706487185</v>
       </c>
       <c r="P12">
-        <v>0.2920648145394527</v>
+        <v>0.4709202244350561</v>
       </c>
       <c r="Q12">
-        <v>0.1404519421875</v>
+        <v>0.6482431065323334</v>
       </c>
       <c r="R12">
-        <v>0.8427116531250002</v>
+        <v>3.889458639194</v>
       </c>
       <c r="S12">
-        <v>0.02376210618557347</v>
+        <v>0.06726611255472224</v>
       </c>
       <c r="T12">
-        <v>0.01984855655317766</v>
+        <v>0.05540306597686269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H13">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I13">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J13">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,276 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05351033333333333</v>
+        <v>0.311839</v>
       </c>
       <c r="N13">
-        <v>0.160531</v>
+        <v>0.935517</v>
       </c>
       <c r="O13">
-        <v>0.03254468429491061</v>
+        <v>0.1013907128228255</v>
       </c>
       <c r="P13">
-        <v>0.03729726288632967</v>
+        <v>0.1252641814419031</v>
       </c>
       <c r="Q13">
-        <v>0.01195732990277778</v>
+        <v>0.1149545618723333</v>
       </c>
       <c r="R13">
-        <v>0.107615969125</v>
+        <v>1.034591056851</v>
       </c>
       <c r="S13">
-        <v>0.002022979094631742</v>
+        <v>0.01192846698971795</v>
       </c>
       <c r="T13">
-        <v>0.002534700500796024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H14">
-        <v>1.840637</v>
-      </c>
-      <c r="I14">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J14">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.9270143333333335</v>
-      </c>
-      <c r="N14">
-        <v>2.781043</v>
-      </c>
-      <c r="O14">
-        <v>0.5638049127306946</v>
-      </c>
-      <c r="P14">
-        <v>0.6461387013672558</v>
-      </c>
-      <c r="Q14">
-        <v>0.8531484407318334</v>
-      </c>
-      <c r="R14">
-        <v>5.118890644391</v>
-      </c>
-      <c r="S14">
-        <v>0.1443383660274545</v>
-      </c>
-      <c r="T14">
-        <v>0.1205662578272856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H15">
-        <v>1.840637</v>
-      </c>
-      <c r="I15">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J15">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.03514900000000001</v>
-      </c>
-      <c r="N15">
-        <v>0.105447</v>
-      </c>
-      <c r="O15">
-        <v>0.021377424452881</v>
-      </c>
-      <c r="P15">
-        <v>0.02449922120696193</v>
-      </c>
-      <c r="Q15">
-        <v>0.0323482749565</v>
-      </c>
-      <c r="R15">
-        <v>0.194089649739</v>
-      </c>
-      <c r="S15">
-        <v>0.005472784017541979</v>
-      </c>
-      <c r="T15">
-        <v>0.004571432440675595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H16">
-        <v>1.840637</v>
-      </c>
-      <c r="I16">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J16">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6285375000000001</v>
-      </c>
-      <c r="N16">
-        <v>1.257075</v>
-      </c>
-      <c r="O16">
-        <v>0.3822729785215139</v>
-      </c>
-      <c r="P16">
-        <v>0.2920648145394527</v>
-      </c>
-      <c r="Q16">
-        <v>0.57845468919375</v>
-      </c>
-      <c r="R16">
-        <v>2.313818756775</v>
-      </c>
-      <c r="S16">
-        <v>0.09786480367651403</v>
-      </c>
-      <c r="T16">
-        <v>0.05449783716333584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H17">
-        <v>1.840637</v>
-      </c>
-      <c r="I17">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J17">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05351033333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.160531</v>
-      </c>
-      <c r="O17">
-        <v>0.03254468429491061</v>
-      </c>
-      <c r="P17">
-        <v>0.03729726288632967</v>
-      </c>
-      <c r="Q17">
-        <v>0.04924654970783333</v>
-      </c>
-      <c r="R17">
-        <v>0.295479298247</v>
-      </c>
-      <c r="S17">
-        <v>0.008331687872770503</v>
-      </c>
-      <c r="T17">
-        <v>0.006959483163428964</v>
+        <v>0.01473714516570002</v>
       </c>
     </row>
   </sheetData>
